--- a/output/fit_clients/fit_round_10.xlsx
+++ b/output/fit_clients/fit_round_10.xlsx
@@ -485,25 +485,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D2" t="n">
-        <v>4631561151.493849</v>
+        <v>11741576808.20106</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001938892638358515</v>
+        <v>0.001351815838892293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005655522866528816</v>
+        <v>0.1059661977538626</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>7.071023008991494e-07</v>
+        <v>0.03331752277235571</v>
       </c>
       <c r="I2" t="n">
-        <v>1.837478313446045</v>
+        <v>1.918690735677321</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>450</v>
+        <v>555</v>
       </c>
       <c r="D3" t="n">
-        <v>3215255551.869132</v>
+        <v>8139028936.686009</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004034955675476349</v>
+        <v>0.004891641142873002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008146755235294638</v>
+        <v>0.178616080776822</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.018577681973851e-06</v>
+        <v>0.2597740535661712</v>
       </c>
       <c r="I3" t="n">
-        <v>1.844440832138061</v>
+        <v>6.11269629007246</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +547,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D4" t="n">
-        <v>1914563032.738912</v>
+        <v>3569413223.458375</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001761175115914675</v>
+        <v>0.002660625459979935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001368139860223241</v>
+        <v>0.4160891544411906</v>
       </c>
       <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>1.710566584110486e-06</v>
-      </c>
       <c r="I4" t="n">
-        <v>1.835693325996399</v>
+        <v>6.244862696344297</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +578,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>450</v>
+        <v>554</v>
       </c>
       <c r="D5" t="n">
-        <v>4494078122.686357</v>
+        <v>5995915247.670001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003808431903850573</v>
+        <v>0.004016583157079982</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005828536862270313</v>
+        <v>0.2420217765025799</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>7.287340045212152e-07</v>
+        <v>0.4574155815241122</v>
       </c>
       <c r="I5" t="n">
-        <v>1.831636500358581</v>
+        <v>6.10168242288314</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D6" t="n">
-        <v>649032361.169804</v>
+        <v>5162965011.747874</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00150975763253524</v>
+        <v>0.004860331894281408</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004035838822087175</v>
+        <v>0.2369288049050478</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>5.045954166404949e-06</v>
+        <v>0.4415403091710368</v>
       </c>
       <c r="I6" t="n">
-        <v>1.838660464286804</v>
+        <v>5.143475977412322</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D7" t="n">
-        <v>1439398421.84168</v>
+        <v>7205748735.941833</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001124963951718809</v>
+        <v>0.00476053254405719</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001819781069822591</v>
+        <v>0.1632177519781747</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.275247420923345e-06</v>
+        <v>0.2117760117983384</v>
       </c>
       <c r="I7" t="n">
-        <v>1.838699221611023</v>
+        <v>1.541554839542373</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +671,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>450</v>
+        <v>584</v>
       </c>
       <c r="D8" t="n">
-        <v>2429573859.261202</v>
+        <v>10648451393.41084</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004399902958873724</v>
+        <v>0.002545926378417389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001078127339086748</v>
+        <v>0.143656922822278</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.347967889303966e-06</v>
+        <v>0.150803064206737</v>
       </c>
       <c r="I8" t="n">
-        <v>1.838146333694458</v>
+        <v>6.432098438562733</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +702,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D9" t="n">
-        <v>128668985.2499559</v>
+        <v>3685619362.726246</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003685636824709343</v>
+        <v>0.004667730463380518</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02035758652259129</v>
+        <v>0.3155532477829517</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.545281242884082e-05</v>
+        <v>0.6866201059836449</v>
       </c>
       <c r="I9" t="n">
-        <v>1.838646197319031</v>
+        <v>4.890157032057968</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +733,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D10" t="n">
-        <v>678282383.9485012</v>
+        <v>7562321049.585535</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003095855959157138</v>
+        <v>0.001195970560627643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003861798657885943</v>
+        <v>0.191544720265399</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>4.828354125772296e-06</v>
+        <v>0.3000738410488547</v>
       </c>
       <c r="I10" t="n">
-        <v>1.833882822990417</v>
+        <v>6.090668555693821</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +764,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="D11" t="n">
-        <v>1824765719.917668</v>
+        <v>7982976176.649088</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000812304082011366</v>
+        <v>0.002341589887010742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00143546646641202</v>
+        <v>0.1348581363864094</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.794744120425596e-06</v>
+        <v>0.1233764178233866</v>
       </c>
       <c r="I11" t="n">
-        <v>1.835485281944275</v>
+        <v>1.578658499588838</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +795,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="D12" t="n">
-        <v>3712068996.921957</v>
+        <v>7414170799.06617</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001846419463877546</v>
+        <v>0.001210634708075548</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0007056415174857998</v>
+        <v>0.1709948144382754</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>8.822539531705984e-07</v>
+        <v>0.236017848277616</v>
       </c>
       <c r="I12" t="n">
-        <v>1.844220595359802</v>
+        <v>5.330711719630758</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +826,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D13" t="n">
-        <v>2641715195.622495</v>
+        <v>11030815639.20677</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001771264182260648</v>
+        <v>0.003799180704273011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009915489770965891</v>
+        <v>0.1123191167837427</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.239720145609677e-06</v>
+        <v>0.05312016999019093</v>
       </c>
       <c r="I13" t="n">
-        <v>1.841385107040405</v>
+        <v>1.972019433452863</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +857,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D14" t="n">
-        <v>4421137649.298481</v>
+        <v>7531101427.991058</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003452755306270073</v>
+        <v>0.002083211896376473</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005924696781190762</v>
+        <v>0.1839913222851957</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.407567478691982e-07</v>
+        <v>0.276529187828129</v>
       </c>
       <c r="I14" t="n">
-        <v>1.838618626594543</v>
+        <v>5.826335743150146</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +888,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D15" t="n">
-        <v>472000757.0176398</v>
+        <v>7209274896.723257</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003634701069172503</v>
+        <v>0.003835257473186202</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005549546184100944</v>
+        <v>0.2038315657331785</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>6.938521810154682e-06</v>
+        <v>0.3383730960958824</v>
       </c>
       <c r="I15" t="n">
-        <v>1.842697601318359</v>
+        <v>6.178779493208379</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +919,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>450</v>
+        <v>597</v>
       </c>
       <c r="D16" t="n">
-        <v>1590104679.135227</v>
+        <v>11491871007.86921</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001000698564808018</v>
+        <v>0.001409256946904231</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001647306642368064</v>
+        <v>0.136076695337877</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.059604999563616e-06</v>
+        <v>0.1271747808934261</v>
       </c>
       <c r="I16" t="n">
-        <v>1.840997142791748</v>
+        <v>6.57527871202389</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +950,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D17" t="n">
-        <v>2923716675.120843</v>
+        <v>7344613173.670012</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00443580115018765</v>
+        <v>0.002632533958853625</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0008959110238996518</v>
+        <v>0.1579919517286392</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.120145318746062e-06</v>
+        <v>0.1954867000212324</v>
       </c>
       <c r="I17" t="n">
-        <v>1.847505431175232</v>
+        <v>1.529838729820953</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +981,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="D18" t="n">
-        <v>3159157060.400885</v>
+        <v>6510770991.779942</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00474565561140208</v>
+        <v>0.002530237705619667</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008291420622397323</v>
+        <v>0.1874794462193636</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.036664997770269e-06</v>
+        <v>0.2874019987982569</v>
       </c>
       <c r="I18" t="n">
-        <v>1.847434682846069</v>
+        <v>5.132462110223003</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1012,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="D19" t="n">
-        <v>2651005561.576064</v>
+        <v>8585595469.286288</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002338189809745013</v>
+        <v>0.003725842327384357</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0009880741247644657</v>
+        <v>0.153155804359055</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.23537558519092e-06</v>
+        <v>0.1804119729858487</v>
       </c>
       <c r="I19" t="n">
-        <v>1.829804134368896</v>
+        <v>5.528961329038514</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1043,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D20" t="n">
-        <v>4952709980.820808</v>
+        <v>9799197343.325584</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001143123273030613</v>
+        <v>0.002579420329773804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0005288801504920525</v>
+        <v>0.1563743535631219</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.612516298468284e-07</v>
+        <v>0.1904444941216619</v>
       </c>
       <c r="I20" t="n">
-        <v>1.839137663841247</v>
+        <v>6.443112305752052</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1074,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="D21" t="n">
-        <v>3792716796.773875</v>
+        <v>9894437523.225019</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0006432460950695578</v>
+        <v>0.004981914292164171</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0006906368548867348</v>
+        <v>0.1429561404253492</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>8.63493828424562e-07</v>
+        <v>0.1486186594445197</v>
       </c>
       <c r="I21" t="n">
-        <v>1.836109137535095</v>
+        <v>5.947488282232664</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1105,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>450</v>
+        <v>548</v>
       </c>
       <c r="D22" t="n">
-        <v>128519285.7007198</v>
+        <v>9582654551.125093</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004340489530750181</v>
+        <v>0.003435409090929079</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02038129908455699</v>
+        <v>0.149794163229172</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.548245992125111e-05</v>
+        <v>0.1699334208344773</v>
       </c>
       <c r="I22" t="n">
-        <v>450</v>
+        <v>6.035599219747222</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1136,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D23" t="n">
-        <v>3328936270.761126</v>
+        <v>5313223278.885451</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001084603850167031</v>
+        <v>0.003950282358147591</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0007868549551419032</v>
+        <v>0.2356513841561435</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>9.837940052326755e-07</v>
+        <v>0.4375584683321538</v>
       </c>
       <c r="I23" t="n">
-        <v>450</v>
+        <v>5.264628516494839</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1167,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="D24" t="n">
-        <v>381062351.8244779</v>
+        <v>6888397499.730178</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000841316538259083</v>
+        <v>0.002757449512240559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006873914432792153</v>
+        <v>0.199637107186957</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>8.594361346105674e-06</v>
+        <v>0.3252985735858377</v>
       </c>
       <c r="I24" t="n">
-        <v>450</v>
+        <v>5.782280274392868</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1198,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="D25" t="n">
-        <v>4270985989.805146</v>
+        <v>8404451126.272286</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0009375163623674614</v>
+        <v>0.003374091722585616</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0006132986636464016</v>
+        <v>0.1573918308436534</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>7.667989440362992e-07</v>
+        <v>0.1936160666765394</v>
       </c>
       <c r="I25" t="n">
-        <v>450</v>
+        <v>1.862443401781849</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1229,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D26" t="n">
-        <v>1992078431.92715</v>
+        <v>4360187263.826156</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0009962347500754025</v>
+        <v>0.001619619687924144</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001314903046997996</v>
+        <v>0.251114219126267</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.64400532352944e-06</v>
+        <v>0.4857575819145504</v>
       </c>
       <c r="I26" t="n">
-        <v>450</v>
+        <v>4.603796485135654</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1260,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>450</v>
+        <v>559</v>
       </c>
       <c r="D27" t="n">
-        <v>4193882394.649139</v>
+        <v>9435315734.994059</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003494035630699183</v>
+        <v>0.001976772246546785</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0006245740231872045</v>
+        <v>0.155187070695406</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>7.808963720954317e-07</v>
+        <v>0.1867436215516551</v>
       </c>
       <c r="I27" t="n">
-        <v>450</v>
+        <v>6.156751758829738</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1291,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D28" t="n">
-        <v>2722322212.960444</v>
+        <v>8731856144.206993</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001329494710253971</v>
+        <v>0.004708951780596967</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0009621895554940542</v>
+        <v>0.1319915927342239</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.203012461708184e-06</v>
+        <v>0.1144411311603947</v>
       </c>
       <c r="I28" t="n">
-        <v>450</v>
+        <v>4.846101563300689</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1322,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="D29" t="n">
-        <v>703231843.1428608</v>
+        <v>5885638449.016582</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002081391905835109</v>
+        <v>0.003648709149239378</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003724788667551668</v>
+        <v>0.2318698645561596</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>4.657052405846622e-06</v>
+        <v>0.4257711154265675</v>
       </c>
       <c r="I29" t="n">
-        <v>450</v>
+        <v>5.738224805635588</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1353,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>450</v>
+        <v>588</v>
       </c>
       <c r="D30" t="n">
-        <v>2651743904.544246</v>
+        <v>9302033762.183023</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004898620322817088</v>
+        <v>0.003692672530015469</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0009877990086113511</v>
+        <v>0.1655768361389544</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1.235031611221629e-06</v>
+        <v>0.2191294994114153</v>
       </c>
       <c r="I30" t="n">
-        <v>450</v>
+        <v>2.146987523402808</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1384,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="D31" t="n">
-        <v>4401565284.951936</v>
+        <v>5375623540.398355</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003326939142700229</v>
+        <v>0.004953000027454639</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0005951042028060259</v>
+        <v>0.2738467768319415</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7.440506581085907e-07</v>
+        <v>0.5566171062508851</v>
       </c>
       <c r="I31" t="n">
-        <v>450</v>
+        <v>6.189793360397698</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1415,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D32" t="n">
-        <v>1638027954.409359</v>
+        <v>6967599098.445612</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001537645572784908</v>
+        <v>0.002302539363220608</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001599111903401246</v>
+        <v>0.1684205281359817</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.99934777557402e-06</v>
+        <v>0.2279935553120893</v>
       </c>
       <c r="I32" t="n">
-        <v>450</v>
+        <v>4.934212500815247</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="D33" t="n">
-        <v>335125820.7473602</v>
+        <v>6652466450.907081</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005005090786617887</v>
+        <v>0.003042729667140085</v>
       </c>
       <c r="F33" t="n">
-        <v>0.007816139007607735</v>
+        <v>0.1649800743978724</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>9.77241186511055e-06</v>
+        <v>0.2172693368347844</v>
       </c>
       <c r="I33" t="n">
-        <v>450</v>
+        <v>4.614810352324974</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>450</v>
+        <v>537</v>
       </c>
       <c r="D34" t="n">
-        <v>2512925982.691546</v>
+        <v>11046554740.61013</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00422366396888548</v>
+        <v>0.00168172816104123</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0010423665551798</v>
+        <v>0.1273349440644069</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.303256669529374e-06</v>
+        <v>0.09992591848539098</v>
       </c>
       <c r="I34" t="n">
-        <v>450</v>
+        <v>5.914446680664704</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +1508,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="D35" t="n">
-        <v>463109970.3158004</v>
+        <v>9477785180.193161</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0008675228470349849</v>
+        <v>0.002295289182122432</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005656086389618875</v>
+        <v>0.1310001056570366</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>7.0717275742156e-06</v>
+        <v>0.1113505725182594</v>
       </c>
       <c r="I35" t="n">
-        <v>450</v>
+        <v>1.755587944716424</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +1539,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="D36" t="n">
-        <v>4592921599.538335</v>
+        <v>6672634117.576994</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002421597028799308</v>
+        <v>0.0016731837889433</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0005703101921581445</v>
+        <v>0.2316086979696692</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>7.130510451790872e-07</v>
+        <v>0.4249570345681415</v>
       </c>
       <c r="I36" t="n">
-        <v>450</v>
+        <v>6.498181641698651</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +1570,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D37" t="n">
-        <v>1470009023.493147</v>
+        <v>10568077683.87513</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003286525383607157</v>
+        <v>0.003464404985076307</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001781887021193657</v>
+        <v>0.1137671434639887</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.227869009398418e-06</v>
+        <v>0.05763380559235386</v>
       </c>
       <c r="I37" t="n">
-        <v>450</v>
+        <v>5.055365039897764</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +1601,25 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="D38" t="n">
-        <v>3788004136.683301</v>
+        <v>7477722739.228683</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001367976052532208</v>
+        <v>0.001880144056847697</v>
       </c>
       <c r="F38" t="n">
-        <v>0.000691496076953465</v>
+        <v>0.1432696219638797</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>8.645681020411783e-07</v>
+        <v>0.1495958109378137</v>
       </c>
       <c r="I38" t="n">
-        <v>450</v>
+        <v>4.504671680431777</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +1632,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D39" t="n">
-        <v>1208119670.546403</v>
+        <v>6486037019.226798</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0005897059007540051</v>
+        <v>0.003428804882655717</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002168154417033301</v>
+        <v>0.1797135209905038</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>2.710813859603178e-06</v>
+        <v>0.2631948781181594</v>
       </c>
       <c r="I39" t="n">
-        <v>450</v>
+        <v>1.591006154530463</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>450</v>
+        <v>532</v>
       </c>
       <c r="D40" t="n">
-        <v>4977344800.472629</v>
+        <v>4729102002.302545</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004677941756631887</v>
+        <v>0.003944419583593229</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0005262625164628485</v>
+        <v>0.2946680954061709</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>6.57978837766159e-07</v>
+        <v>0.621519118128629</v>
       </c>
       <c r="I40" t="n">
-        <v>450</v>
+        <v>5.859377344718106</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +1694,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="D41" t="n">
-        <v>1741391679.735254</v>
+        <v>5530176020.654335</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001301468293710195</v>
+        <v>0.001532106934649001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001504193473807242</v>
+        <v>0.2316168066289588</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.880672559245439e-06</v>
+        <v>0.424982310023183</v>
       </c>
       <c r="I41" t="n">
-        <v>450</v>
+        <v>5.385781055577357</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +1725,25 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D42" t="n">
-        <v>4012889470.161499</v>
+        <v>6355372734.246832</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0007232069026177758</v>
+        <v>0.001144279356828981</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0006527441185402455</v>
+        <v>0.1916514421627146</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>8.161170576284555e-07</v>
+        <v>0.3004065032586229</v>
       </c>
       <c r="I42" t="n">
-        <v>450</v>
+        <v>1.765631810719756</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +1756,25 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="D43" t="n">
-        <v>1659278619.147779</v>
+        <v>9546659499.09618</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001180145356046854</v>
+        <v>0.004111428154496694</v>
       </c>
       <c r="F43" t="n">
-        <v>0.001578631804069978</v>
+        <v>0.1336219156156947</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.973741787053507e-06</v>
+        <v>0.1195230011985746</v>
       </c>
       <c r="I43" t="n">
-        <v>450</v>
+        <v>5.363753321198717</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +1787,25 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D44" t="n">
-        <v>3462762376.054428</v>
+        <v>7811004534.01851</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0006504033577731836</v>
+        <v>0.001635809515497397</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0007564452063224186</v>
+        <v>0.1928240143044873</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9.457731115549518e-07</v>
+        <v>0.3040615211097513</v>
       </c>
       <c r="I44" t="n">
-        <v>450</v>
+        <v>6.332973633858855</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +1818,25 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>450</v>
+        <v>598</v>
       </c>
       <c r="D45" t="n">
-        <v>4748089150.962017</v>
+        <v>7573574654.649183</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00101477585910925</v>
+        <v>0.001034802239271949</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0005516724553222178</v>
+        <v>0.2068237643948539</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>6.897485373274562e-07</v>
+        <v>0.3477000612632562</v>
       </c>
       <c r="I45" t="n">
-        <v>450</v>
+        <v>6.586292579213209</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +1849,25 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="D46" t="n">
-        <v>3620875686.984382</v>
+        <v>8424648954.194748</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001103250198622601</v>
+        <v>0.002323942061119299</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0007234134022926201</v>
+        <v>0.1274771098284476</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>9.04473898054192e-07</v>
+        <v>0.1003690625674281</v>
       </c>
       <c r="I46" t="n">
-        <v>450</v>
+        <v>4.515685547621096</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +1880,25 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D47" t="n">
-        <v>253949194.421731</v>
+        <v>8136412088.765512</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004984447528964988</v>
+        <v>0.004545676530028684</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01031462220608585</v>
+        <v>0.1529187848926635</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.289623128923053e-05</v>
+        <v>0.1796731609760253</v>
       </c>
       <c r="I47" t="n">
-        <v>450</v>
+        <v>5.23158691492688</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +1911,25 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D48" t="n">
-        <v>1710334872.429317</v>
+        <v>4071793639.61405</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001695047642757514</v>
+        <v>0.004913119409870457</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001531507099705851</v>
+        <v>0.3763312401424265</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.914822412715413e-06</v>
+        <v>0.876070834954399</v>
       </c>
       <c r="I48" t="n">
-        <v>450</v>
+        <v>6.443112305752052</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +1942,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D49" t="n">
-        <v>2534992985.760207</v>
+        <v>7447187241.76784</v>
       </c>
       <c r="E49" t="n">
-        <v>0.004970094567237064</v>
+        <v>0.003272627013291664</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001033292799906696</v>
+        <v>0.1547606582974014</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.291911877221346e-06</v>
+        <v>0.1854144539285071</v>
       </c>
       <c r="I49" t="n">
-        <v>450</v>
+        <v>4.846101563300689</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +1973,25 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D50" t="n">
-        <v>359280883.8736283</v>
+        <v>4268254623.006637</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004117087719275794</v>
+        <v>0.004131512628833012</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007290646726758029</v>
+        <v>0.3246426074328053</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>9.115396042413272e-06</v>
+        <v>0.7149524964541516</v>
       </c>
       <c r="I50" t="n">
-        <v>450</v>
+        <v>5.826335743150146</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2004,25 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="D51" t="n">
-        <v>4219535299.831759</v>
+        <v>9884610708.367243</v>
       </c>
       <c r="E51" t="n">
-        <v>0.003828359196453526</v>
+        <v>0.002903440489956149</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0006207768898400826</v>
+        <v>0.1264034636126187</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>7.761488681246472e-07</v>
+        <v>0.09702240614872909</v>
       </c>
       <c r="I51" t="n">
-        <v>450</v>
+        <v>5.253614649305519</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2035,25 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="D52" t="n">
-        <v>954254552.2521319</v>
+        <v>9448505183.618103</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001412328568693233</v>
+        <v>0.0032647394106087</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002744959396649447</v>
+        <v>0.148316968956075</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>3.431985248849094e-06</v>
+        <v>0.1653288670970912</v>
       </c>
       <c r="I52" t="n">
-        <v>450</v>
+        <v>5.892418946286065</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2066,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D53" t="n">
-        <v>2291055280.461979</v>
+        <v>9567343247.81254</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004736402605423769</v>
+        <v>0.001614771459233107</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001143311565782827</v>
+        <v>0.1245719338304807</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1.429466837795389e-06</v>
+        <v>0.09131335524251567</v>
       </c>
       <c r="I53" t="n">
-        <v>450</v>
+        <v>5.011309571140485</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2097,25 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D54" t="n">
-        <v>3365275118.556035</v>
+        <v>4652581180.855147</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001346257052656834</v>
+        <v>0.004702064893980365</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0007783583533948697</v>
+        <v>0.3113374304913817</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>9.731708200967649e-07</v>
+        <v>0.673479006251828</v>
       </c>
       <c r="I54" t="n">
-        <v>450</v>
+        <v>6.090668555693821</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2128,25 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D55" t="n">
-        <v>3439468185.650774</v>
+        <v>9470306858.477909</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00430650422421788</v>
+        <v>0.001483566800546472</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0007615683177207207</v>
+        <v>0.156826399840512</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>9.521784677757561e-07</v>
+        <v>0.1918535649621981</v>
       </c>
       <c r="I55" t="n">
-        <v>450</v>
+        <v>6.244862696344297</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D56" t="n">
-        <v>3345305167.650477</v>
+        <v>7063322865.56961</v>
       </c>
       <c r="E56" t="n">
-        <v>0.002130840779414419</v>
+        <v>0.001146718870240128</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0007830047988834715</v>
+        <v>0.2173145089377442</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>9.789802074399539e-07</v>
+        <v>0.3804007004903874</v>
       </c>
       <c r="I56" t="n">
-        <v>450</v>
+        <v>6.454126172941372</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +2190,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D57" t="n">
-        <v>2596785918.423921</v>
+        <v>10145389856.93107</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004455317385926043</v>
+        <v>0.001892700453050512</v>
       </c>
       <c r="F57" t="n">
-        <v>0.001008704638074208</v>
+        <v>0.1076632485693764</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1.261169634254686e-06</v>
+        <v>0.03860739006836519</v>
       </c>
       <c r="I57" t="n">
-        <v>450</v>
+        <v>4.592782617946335</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +2221,25 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D58" t="n">
-        <v>1716606899.486934</v>
+        <v>10531253041.23628</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003302790666920774</v>
+        <v>0.003599858423189042</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001525911378302681</v>
+        <v>0.1081955438292498</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>1.90782615865942e-06</v>
+        <v>0.04026660454873578</v>
       </c>
       <c r="I58" t="n">
-        <v>450</v>
+        <v>4.79103222735409</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +2252,25 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D59" t="n">
-        <v>742572680.1132398</v>
+        <v>7333201966.680666</v>
       </c>
       <c r="E59" t="n">
-        <v>0.004950081361062611</v>
+        <v>0.002381176626755057</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00352745269271225</v>
+        <v>0.185741890948701</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>4.410325931297378e-06</v>
+        <v>0.2819858752990297</v>
       </c>
       <c r="I59" t="n">
-        <v>450</v>
+        <v>5.727210938446269</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +2283,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D60" t="n">
-        <v>136991014.4672385</v>
+        <v>8151091827.137989</v>
       </c>
       <c r="E60" t="n">
-        <v>0.002288326169720766</v>
+        <v>0.004383659442112248</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01912088913412952</v>
+        <v>0.1883137342275478</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>2.390658657221368e-05</v>
+        <v>0.2900025531302792</v>
       </c>
       <c r="I60" t="n">
-        <v>450</v>
+        <v>6.454126172941372</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +2314,25 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="D61" t="n">
-        <v>4979676526.003522</v>
+        <v>11106851111.30221</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004742895865197575</v>
+        <v>0.00241419510991461</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0005260160948852258</v>
+        <v>0.09527754981095886</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>6.576707402327559e-07</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>450</v>
+        <v>4.449602344485178</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +2345,25 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D62" t="n">
-        <v>1054909517.324069</v>
+        <v>7763659739.05251</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003188844578732259</v>
+        <v>0.003758092146377222</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002483047083170188</v>
+        <v>0.1939999047644781</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>3.104519859943909e-06</v>
+        <v>0.3077268824714334</v>
       </c>
       <c r="I62" t="n">
-        <v>450</v>
+        <v>6.332973633858855</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +2376,25 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D63" t="n">
-        <v>2775505419.79611</v>
+        <v>6685397250.622767</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00336570255081632</v>
+        <v>0.001541526426544644</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0009437524356167253</v>
+        <v>0.2198041096006842</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1.17996078250029e-06</v>
+        <v>0.3881610203385723</v>
       </c>
       <c r="I63" t="n">
-        <v>450</v>
+        <v>6.178779493208379</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +2407,25 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="D64" t="n">
-        <v>2396206003.306677</v>
+        <v>6245400841.756966</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00331276669887613</v>
+        <v>0.001804699437831559</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001093140571547412</v>
+        <v>0.2189325576763689</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1.366738728830931e-06</v>
+        <v>0.385444310868789</v>
       </c>
       <c r="I64" t="n">
-        <v>450</v>
+        <v>5.749238672824908</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +2438,25 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D65" t="n">
-        <v>1820272257.570522</v>
+        <v>6981316612.486004</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003427462180662559</v>
+        <v>0.00233644233676065</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001439010010236624</v>
+        <v>0.1729672004619202</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1.79917456487936e-06</v>
+        <v>0.2421659613607388</v>
       </c>
       <c r="I65" t="n">
-        <v>450</v>
+        <v>5.077392774276404</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +2469,25 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="D66" t="n">
-        <v>3590032980.804874</v>
+        <v>7743247181.109459</v>
       </c>
       <c r="E66" t="n">
-        <v>0.00443694832660471</v>
+        <v>0.001461693853076115</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0007296283945037019</v>
+        <v>0.158991863646487</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>9.122444179446429e-07</v>
+        <v>0.1986035196855346</v>
       </c>
       <c r="I66" t="n">
-        <v>450</v>
+        <v>5.176517578980281</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +2500,25 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D67" t="n">
-        <v>1500136043.622596</v>
+        <v>4932304726.294037</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001518861118453455</v>
+        <v>0.004617733709396809</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001746101636005345</v>
+        <v>0.2437602858539048</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>2.183127030977689e-06</v>
+        <v>0.4628346789826618</v>
       </c>
       <c r="I67" t="n">
-        <v>450</v>
+        <v>5.055365039897764</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +2531,25 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D68" t="n">
-        <v>4145381257.923578</v>
+        <v>8318750477.438666</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003089037554167409</v>
+        <v>0.004903775497223803</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0006318815657771495</v>
+        <v>0.1404355068911386</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>7.900328928048601e-07</v>
+        <v>0.1407616072125224</v>
       </c>
       <c r="I68" t="n">
-        <v>450</v>
+        <v>4.912184766436607</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +2562,25 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>450</v>
+        <v>544</v>
       </c>
       <c r="D69" t="n">
-        <v>3516472082.361291</v>
+        <v>7600483676.354932</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002974308754870507</v>
+        <v>0.001009454970858385</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0007448914533230404</v>
+        <v>0.1874812473360093</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>9.313276119562647e-07</v>
+        <v>0.2874076130485511</v>
       </c>
       <c r="I69" t="n">
-        <v>450</v>
+        <v>5.991543750989942</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +2593,25 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="D70" t="n">
-        <v>4332103328.278568</v>
+        <v>5912635597.849428</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001063109582620098</v>
+        <v>0.002152856045830613</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0006046462426003254</v>
+        <v>0.2246089257526775</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>7.559809401586421e-07</v>
+        <v>0.4031380850165514</v>
       </c>
       <c r="I70" t="n">
-        <v>450</v>
+        <v>2.200858848569691</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +2624,25 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D71" t="n">
-        <v>504297073.4791481</v>
+        <v>10813352327.58719</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004812645225515649</v>
+        <v>0.004135454195375603</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00519414079072245</v>
+        <v>0.1010126736750586</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>6.494163300179908e-06</v>
+        <v>0.01787692147455213</v>
       </c>
       <c r="I71" t="n">
-        <v>450</v>
+        <v>4.592782617946335</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +2655,25 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D72" t="n">
-        <v>4630688955.057376</v>
+        <v>6916457771.588399</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002809482020246182</v>
+        <v>0.00148032754405016</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0005656588091798415</v>
+        <v>0.1768615048912636</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>7.072354845599506e-07</v>
+        <v>0.254304875206552</v>
       </c>
       <c r="I72" t="n">
-        <v>450</v>
+        <v>1.520259448312524</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +2686,25 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D73" t="n">
-        <v>2660087432.532396</v>
+        <v>7836117488.591782</v>
       </c>
       <c r="E73" t="n">
-        <v>0.002224968725751194</v>
+        <v>0.004150488471087899</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009847007162115523</v>
+        <v>0.1701441449724359</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1.231157858544008e-06</v>
+        <v>0.2333662313985444</v>
       </c>
       <c r="I73" t="n">
-        <v>450</v>
+        <v>5.606058399363752</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +2717,25 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D74" t="n">
-        <v>1464896044.314089</v>
+        <v>5525746403.056311</v>
       </c>
       <c r="E74" t="n">
-        <v>0.003468514637626379</v>
+        <v>0.001253580176352478</v>
       </c>
       <c r="F74" t="n">
-        <v>0.001788106405343241</v>
+        <v>0.2147372650586528</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>2.235645020469604e-06</v>
+        <v>0.3723671884793054</v>
       </c>
       <c r="I74" t="n">
-        <v>450</v>
+        <v>4.989281836761846</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +2748,25 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>450</v>
+        <v>568</v>
       </c>
       <c r="D75" t="n">
-        <v>1176742228.621739</v>
+        <v>7224034554.467442</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000635704185960415</v>
+        <v>0.002257239628741936</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002225967536720395</v>
+        <v>0.2059532673580466</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>2.783096813660072e-06</v>
+        <v>0.3449866399772316</v>
       </c>
       <c r="I75" t="n">
-        <v>450</v>
+        <v>6.255876563533617</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +2779,25 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D76" t="n">
-        <v>4319411996.400764</v>
+        <v>10831391067.06737</v>
       </c>
       <c r="E76" t="n">
-        <v>0.002726813800930032</v>
+        <v>0.001551751745503338</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0006064228191667427</v>
+        <v>0.1073739423494833</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>7.582021695789525e-07</v>
+        <v>0.03770559532117538</v>
       </c>
       <c r="I76" t="n">
-        <v>450</v>
+        <v>2.005948477745056</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +2810,25 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D77" t="n">
-        <v>3601338091.852296</v>
+        <v>10478950088.41026</v>
       </c>
       <c r="E77" t="n">
-        <v>0.00344608582593801</v>
+        <v>0.003583660996018748</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0007273379874902982</v>
+        <v>0.1299827548092309</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>9.093807533332621e-07</v>
+        <v>0.1081793940661011</v>
       </c>
       <c r="I77" t="n">
-        <v>450</v>
+        <v>2.313453246045996</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +2841,25 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D78" t="n">
-        <v>1115656505.398739</v>
+        <v>8224066367.268616</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004005852520261659</v>
+        <v>0.002291478011280351</v>
       </c>
       <c r="F78" t="n">
-        <v>0.002347846301549437</v>
+        <v>0.1522444450330765</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>2.935480168966453e-06</v>
+        <v>0.1775711800942421</v>
       </c>
       <c r="I78" t="n">
-        <v>450</v>
+        <v>1.607975085438081</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +2872,25 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D79" t="n">
-        <v>2736362818.375944</v>
+        <v>3918138735.184042</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001681140985233018</v>
+        <v>0.003928845664380482</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0009572524456221897</v>
+        <v>0.2841248932824502</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.196839660655873e-06</v>
+        <v>0.588654963679251</v>
       </c>
       <c r="I79" t="n">
-        <v>450</v>
+        <v>4.680893555460893</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +2903,25 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D80" t="n">
-        <v>3802107466.613652</v>
+        <v>9613762427.654593</v>
       </c>
       <c r="E80" t="n">
-        <v>0.004946010538108961</v>
+        <v>0.002232241306376718</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0006889310791451564</v>
+        <v>0.1258776872329301</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>8.613611203087015e-07</v>
+        <v>0.09538351163213399</v>
       </c>
       <c r="I80" t="n">
-        <v>450</v>
+        <v>5.088406641465723</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +2934,25 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="D81" t="n">
-        <v>4206508177.990417</v>
+        <v>4914827246.940921</v>
       </c>
       <c r="E81" t="n">
-        <v>0.004994294820225974</v>
+        <v>0.001917182933926802</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0006226993718222998</v>
+        <v>0.2259736312586106</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>7.785525210938684e-07</v>
+        <v>0.4073920006674709</v>
       </c>
       <c r="I81" t="n">
-        <v>450</v>
+        <v>4.669879688271573</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +2965,25 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D82" t="n">
-        <v>1499691726.662421</v>
+        <v>9244647094.017061</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0007745767983105118</v>
+        <v>0.003206823848763001</v>
       </c>
       <c r="F82" t="n">
-        <v>0.001746618957370311</v>
+        <v>0.1241034739706293</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>2.183773830815837e-06</v>
+        <v>0.08985312171888311</v>
       </c>
       <c r="I82" t="n">
-        <v>450</v>
+        <v>1.740939641542073</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +2996,25 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D83" t="n">
-        <v>870360888.1690898</v>
+        <v>9368527336.606066</v>
       </c>
       <c r="E83" t="n">
-        <v>0.003172261218609759</v>
+        <v>0.001812576781077812</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003009544702209915</v>
+        <v>0.122182856373527</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>3.76279264325141e-06</v>
+        <v>0.08386637569915599</v>
       </c>
       <c r="I83" t="n">
-        <v>450</v>
+        <v>4.81305996173273</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +3027,25 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="D84" t="n">
-        <v>2323146945.48481</v>
+        <v>8336906467.696402</v>
       </c>
       <c r="E84" t="n">
-        <v>0.002935398776652351</v>
+        <v>0.001655168646819171</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001127518000999015</v>
+        <v>0.1652650350988889</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1.4097203594209e-06</v>
+        <v>0.2181575861901811</v>
       </c>
       <c r="I84" t="n">
-        <v>450</v>
+        <v>5.793294141582187</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +3058,25 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="D85" t="n">
-        <v>3711973462.863582</v>
+        <v>5869376637.634031</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001731753187169573</v>
+        <v>0.002764320414065716</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0007056596783909349</v>
+        <v>0.2155536180601954</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>8.822766595022861e-07</v>
+        <v>0.374911837705706</v>
       </c>
       <c r="I85" t="n">
-        <v>450</v>
+        <v>5.319697852441438</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +3089,25 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="D86" t="n">
-        <v>1853577278.109043</v>
+        <v>10778218910.77625</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003016779688830322</v>
+        <v>0.003747675497186098</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001413153921843611</v>
+        <v>0.1249154866073354</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1.766847050648704e-06</v>
+        <v>0.09238424161911875</v>
       </c>
       <c r="I86" t="n">
-        <v>450</v>
+        <v>5.66112773531035</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +3120,25 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="D87" t="n">
-        <v>1389707911.595429</v>
+        <v>5277162461.80697</v>
       </c>
       <c r="E87" t="n">
-        <v>0.003072457253250685</v>
+        <v>0.00213187991332115</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001884849311243293</v>
+        <v>0.2059907872587612</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>2.356601354608842e-06</v>
+        <v>0.3451035930430593</v>
       </c>
       <c r="I87" t="n">
-        <v>450</v>
+        <v>4.570754883567695</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +3151,25 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D88" t="n">
-        <v>2923311899.978363</v>
+        <v>6165702791.894371</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0009117920891983977</v>
+        <v>0.004376081163326431</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0008960350758396283</v>
+        <v>0.1907497246779631</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1.120300419192579e-06</v>
+        <v>0.2975957648946202</v>
       </c>
       <c r="I88" t="n">
-        <v>450</v>
+        <v>4.945226368004566</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +3182,25 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D89" t="n">
-        <v>1872636609.152395</v>
+        <v>8535807842.402661</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0005019296093609231</v>
+        <v>0.002511555927821913</v>
       </c>
       <c r="F89" t="n">
-        <v>0.001398771116188744</v>
+        <v>0.1561972263921901</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>1.748864425148006e-06</v>
+        <v>0.1898923720401181</v>
       </c>
       <c r="I89" t="n">
-        <v>450</v>
+        <v>2.111525380650377</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +3213,25 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D90" t="n">
-        <v>483743772.0375717</v>
+        <v>7395118104.548245</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004930920503004112</v>
+        <v>0.00104923938025695</v>
       </c>
       <c r="F90" t="n">
-        <v>0.005414829402282322</v>
+        <v>0.1615176151501053</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>6.770087257520394e-06</v>
+        <v>0.2064765251104148</v>
       </c>
       <c r="I90" t="n">
-        <v>450</v>
+        <v>5.022323438329805</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +3244,25 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D91" t="n">
-        <v>1668980990.983274</v>
+        <v>11036324095.05627</v>
       </c>
       <c r="E91" t="n">
-        <v>0.004410033783401334</v>
+        <v>0.001304259300510288</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00156945466374473</v>
+        <v>0.1141617969124688</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>1.962267733826595e-06</v>
+        <v>0.05886397757735734</v>
       </c>
       <c r="I91" t="n">
-        <v>450</v>
+        <v>5.297670118062799</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +3275,25 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>450</v>
+        <v>549</v>
       </c>
       <c r="D92" t="n">
-        <v>4362899460.142323</v>
+        <v>10454543784.32087</v>
       </c>
       <c r="E92" t="n">
-        <v>0.003740441218364305</v>
+        <v>0.004153207347415489</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0006003782631091281</v>
+        <v>0.1375521629319395</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>7.506447436837292e-07</v>
+        <v>0.1317739524095659</v>
       </c>
       <c r="I92" t="n">
-        <v>450</v>
+        <v>6.046613086936541</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +3306,25 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D93" t="n">
-        <v>467494237.3542276</v>
+        <v>5985060495.620067</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003132384002795019</v>
+        <v>0.003862009272679614</v>
       </c>
       <c r="F93" t="n">
-        <v>0.005603042328017506</v>
+        <v>0.210511922297532</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>7.005407308357697e-06</v>
+        <v>0.3591963969613648</v>
       </c>
       <c r="I93" t="n">
-        <v>450</v>
+        <v>1.727958966324749</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +3337,25 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D94" t="n">
-        <v>3088201717.775626</v>
+        <v>5092299238.574576</v>
       </c>
       <c r="E94" t="n">
-        <v>0.003884378204244046</v>
+        <v>0.004689348671871648</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0008481926504097336</v>
+        <v>0.2335296894950107</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>1.060483688007054e-06</v>
+        <v>0.4309449461574234</v>
       </c>
       <c r="I94" t="n">
-        <v>450</v>
+        <v>5.000295703951165</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +3368,25 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="D95" t="n">
-        <v>2864211086.268296</v>
+        <v>6972102307.742311</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0006846881740966699</v>
+        <v>0.001191019939142208</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0009145240769990639</v>
+        <v>0.2190306886782479</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1.143416964859007e-06</v>
+        <v>0.3857501944480071</v>
       </c>
       <c r="I95" t="n">
-        <v>450</v>
+        <v>6.421084571373413</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +3399,25 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>450</v>
+        <v>595</v>
       </c>
       <c r="D96" t="n">
-        <v>3929859575.691922</v>
+        <v>6780795211.751628</v>
       </c>
       <c r="E96" t="n">
-        <v>0.003092550209794676</v>
+        <v>0.002045385215249732</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0006665352666039752</v>
+        <v>0.2298457631191896</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>8.333599417225473e-07</v>
+        <v>0.4194618005272422</v>
       </c>
       <c r="I96" t="n">
-        <v>450</v>
+        <v>6.553250977645249</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +3430,25 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>450</v>
+        <v>599</v>
       </c>
       <c r="D97" t="n">
-        <v>356891730.9061045</v>
+        <v>9019884230.625216</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0006378078790579216</v>
+        <v>0.003263687175329887</v>
       </c>
       <c r="F97" t="n">
-        <v>0.007339452761625182</v>
+        <v>0.1739506372679069</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>9.176417561319285e-06</v>
+        <v>0.2452314265490078</v>
       </c>
       <c r="I97" t="n">
-        <v>450</v>
+        <v>6.597306446402529</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +3461,25 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="D98" t="n">
-        <v>1335580020.245311</v>
+        <v>8754869697.039812</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001147108423694674</v>
+        <v>0.001715347788404721</v>
       </c>
       <c r="F98" t="n">
-        <v>0.001961237784553626</v>
+        <v>0.1220704770010856</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>2.452108819638441e-06</v>
+        <v>0.08351607860634711</v>
       </c>
       <c r="I98" t="n">
-        <v>450</v>
+        <v>0.9431223190349081</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +3492,25 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="D99" t="n">
-        <v>2976830247.035522</v>
+        <v>11492414323.71428</v>
       </c>
       <c r="E99" t="n">
-        <v>0.003834960458402864</v>
+        <v>0.004233064340437886</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0008799258884877702</v>
+        <v>0.1214831653884175</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1.100159322231361e-06</v>
+        <v>0.08168537297041775</v>
       </c>
       <c r="I99" t="n">
-        <v>450</v>
+        <v>1.129872617839525</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +3523,25 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D100" t="n">
-        <v>2363047043.720602</v>
+        <v>6822671917.313769</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00169563756115441</v>
+        <v>0.001900736546156981</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00110847983621849</v>
+        <v>0.1708463435039293</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1.385917201978327e-06</v>
+        <v>0.2355550503856343</v>
       </c>
       <c r="I100" t="n">
-        <v>450</v>
+        <v>4.901170899247288</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +3554,25 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>450</v>
+        <v>649</v>
       </c>
       <c r="D101" t="n">
-        <v>1002716269.802948</v>
+        <v>4943785244.34146</v>
       </c>
       <c r="E101" t="n">
-        <v>0.002064102610723788</v>
+        <v>0.004566768039588344</v>
       </c>
       <c r="F101" t="n">
-        <v>0.002612294303865996</v>
+        <v>0.343862855277899</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>3.266115894997903e-06</v>
+        <v>0.7748638200088185</v>
       </c>
       <c r="I101" t="n">
-        <v>450</v>
+        <v>7.147999805868516</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_10.xlsx
+++ b/output/fit_clients/fit_round_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>11741576808.20106</v>
+        <v>9347276356.901518</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1059661977538626</v>
+        <v>0.1336698501566689</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03331752277235571</v>
+        <v>0.1432880361570571</v>
       </c>
       <c r="I2" t="n">
-        <v>1.918690735677321</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.20685739644227</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7540134725551801</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.873412054661334</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>8139028936.686009</v>
+        <v>3367541941.079075</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.178616080776822</v>
+        <v>0.4674784806081898</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2597740535661712</v>
+        <v>0.9636847133563395</v>
       </c>
       <c r="I3" t="n">
-        <v>6.11269629007246</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4946317272003546</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.448356409187337</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.820728429236961</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.966212175551885</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>3569413223.458375</v>
+        <v>8690060304.224894</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4160891544411906</v>
+        <v>0.1507118425131364</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.1851718960296734</v>
       </c>
       <c r="I4" t="n">
-        <v>6.244862696344297</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.082726862966696</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7674350663758049</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.265974464549405</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>5995915247.670001</v>
+        <v>4335735801.483033</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2420217765025799</v>
+        <v>0.2483014047193007</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4574155815241122</v>
+        <v>0.4250163615696299</v>
       </c>
       <c r="I5" t="n">
-        <v>6.10168242288314</v>
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01687229370702229</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.933898170844286</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6369630858641293</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.8053635464383</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>5162965011.747874</v>
+        <v>8257670488.219434</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2369288049050478</v>
+        <v>0.1630443430651241</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4415403091710368</v>
+        <v>0.2154813055279351</v>
       </c>
       <c r="I6" t="n">
-        <v>5.143475977412322</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.158835498274753</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7753438117128728</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.348040735982703</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>7205748735.941833</v>
+        <v>5150511239.091556</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1632177519781747</v>
+        <v>0.3112441863698851</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2117760117983384</v>
+        <v>0.5797099321042565</v>
       </c>
       <c r="I7" t="n">
-        <v>1.541554839542373</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4772818131828728</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.431006495169855</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8260649694139796</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.090292893109735</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>10648451393.41084</v>
+        <v>3873072891.958458</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.143656922822278</v>
+        <v>0.3111016584536111</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.150803064206737</v>
+        <v>0.5793596432912885</v>
       </c>
       <c r="I8" t="n">
-        <v>6.432098438562733</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.063060486814508</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7437226525430982</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.811392564047456</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>3685619362.726246</v>
+        <v>5542814625.896654</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3155532477829517</v>
+        <v>0.240540158743685</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6866201059836449</v>
+        <v>0.4059416587954422</v>
       </c>
       <c r="I9" t="n">
-        <v>4.890157032057968</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.368275708128652</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7725409184109234</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8.082542660089818</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>7562321049.585535</v>
+        <v>11887689431.35211</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.191544720265399</v>
+        <v>0.1150199614395949</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3000738410488547</v>
+        <v>0.09745247249014966</v>
       </c>
       <c r="I10" t="n">
-        <v>6.090668555693821</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.042014649558476</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7797798713484454</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.553582777410432</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>7982976176.649088</v>
+        <v>4191829544.192816</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1348581363864094</v>
+        <v>0.3618054584545478</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1233764178233866</v>
+        <v>0.7039736443908995</v>
       </c>
       <c r="I11" t="n">
-        <v>1.578658499588838</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1639099209783007</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7.117634602965284</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.809805553703918</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9.078476471113076</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>7414170799.06617</v>
+        <v>10706166417.79791</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1709948144382754</v>
+        <v>0.1189056372114418</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.236017848277616</v>
+        <v>0.1070022420320127</v>
       </c>
       <c r="I12" t="n">
-        <v>5.330711719630758</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.114488485442434</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7593314356526155</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8.072140227609877</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>11030815639.20677</v>
+        <v>7054674763.096745</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1123191167837427</v>
+        <v>0.203100267285894</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05312016999019093</v>
+        <v>0.3139261752379123</v>
       </c>
       <c r="I13" t="n">
-        <v>1.972019433452863</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1720753763549043</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.125800058341887</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7932761609039394</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.739723159736901</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>7531101427.991058</v>
+        <v>13418124018.50541</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1839913222851957</v>
+        <v>0.1200558921484342</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.276529187828129</v>
+        <v>0.1098292070717246</v>
       </c>
       <c r="I14" t="n">
-        <v>5.826335743150146</v>
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9439504125354233</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.5378515814717859</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.014713922465277</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.932834339809693</v>
+      </c>
+      <c r="N14" t="n">
+        <v>14.64197287372858</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>7209274896.723257</v>
+        <v>10410044129.362</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2038315657331785</v>
+        <v>0.09435802939869002</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3383730960958824</v>
+        <v>0.04667193884143207</v>
       </c>
       <c r="I15" t="n">
-        <v>6.178779493208379</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.022869987051449</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6031221814649178</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.039573642246907</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>11491871007.86921</v>
+        <v>5963810146.887945</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.136076695337877</v>
+        <v>0.2235600190418085</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1271747808934261</v>
+        <v>0.3642098133037416</v>
       </c>
       <c r="I16" t="n">
-        <v>6.57527871202389</v>
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5258316820720482</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.442857559209312</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.7125020822244529</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.807184085279745</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>7344613173.670012</v>
+        <v>10323610545.24307</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1579919517286392</v>
+        <v>0.1390429940871237</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1954867000212324</v>
+        <v>0.1564935348306415</v>
       </c>
       <c r="I17" t="n">
-        <v>1.529838729820953</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.363761400388384</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.793804966547704</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.512337930565696</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>6510770991.779942</v>
+        <v>6734503431.148037</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1874794462193636</v>
+        <v>0.1629703542690012</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2874019987982569</v>
+        <v>0.215299464326265</v>
       </c>
       <c r="I18" t="n">
-        <v>5.132462110223003</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.114522671736791</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7174333119225372</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.234143566713954</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>8585595469.286288</v>
+        <v>12428448724.10633</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.153155804359055</v>
+        <v>0.1053787990016569</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1804119729858487</v>
+        <v>0.07375752602419364</v>
       </c>
       <c r="I19" t="n">
-        <v>5.528961329038514</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7.454962316906657</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7674350663758049</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.893739010609443</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>9799197343.325584</v>
+        <v>6726272963.901854</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1563743535631219</v>
+        <v>0.2200260616752447</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1904444941216619</v>
+        <v>0.3555244570354771</v>
       </c>
       <c r="I20" t="n">
-        <v>6.443112305752052</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7.699617047544242</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8026715599207798</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.353814150871353</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>9894437523.225019</v>
+        <v>13102540195.20994</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1429561404253492</v>
+        <v>0.0753678306105114</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1486186594445197</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>5.947488282232664</v>
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.9481351708594923</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1718166432408271</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.281616860389027</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6473268360079814</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9.664919859770601</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>9582654551.125093</v>
+        <v>3921664785.292278</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.149794163229172</v>
+        <v>0.403428555631148</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1699334208344773</v>
+        <v>0.8062701325680824</v>
       </c>
       <c r="I22" t="n">
-        <v>6.035599219747222</v>
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9375930711262429</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1573716288375574</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.172106445853287</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.9570613445303421</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14.96912044475355</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>5313223278.885451</v>
+        <v>10505676047.72423</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2356513841561435</v>
+        <v>0.1341400414022162</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4375584683321538</v>
+        <v>0.144443618428772</v>
       </c>
       <c r="I23" t="n">
-        <v>5.264628516494839</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7.425630032155078</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7884794603544144</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8.343959174933211</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>6888397499.730178</v>
+        <v>11954247423.75094</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.199637107186957</v>
+        <v>0.124678104540381</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3252985735858377</v>
+        <v>0.1211891520873262</v>
       </c>
       <c r="I24" t="n">
-        <v>5.782280274392868</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2958346413341096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7.249559323321092</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8047249273052111</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.844939222783127</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>8404451126.272286</v>
+        <v>9505165507.411097</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1573918308436534</v>
+        <v>0.1358586832594486</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1936160666765394</v>
+        <v>0.1486674998396926</v>
       </c>
       <c r="I25" t="n">
-        <v>1.862443401781849</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.286556307590876</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7634083402398116</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.981610497205356</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>4360187263.826156</v>
+        <v>12933762673.75932</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.251114219126267</v>
+        <v>0.1196913480669305</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4857575819145504</v>
+        <v>0.1089332723178695</v>
       </c>
       <c r="I26" t="n">
-        <v>4.603796485135654</v>
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5826368384641886</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.499662715601453</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7638066402718108</v>
+      </c>
+      <c r="N26" t="n">
+        <v>9.776470089834763</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>9435315734.994059</v>
+        <v>6387245427.497269</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.155187070695406</v>
+        <v>0.2407269217150584</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1867436215516551</v>
+        <v>0.4064006634680639</v>
       </c>
       <c r="I27" t="n">
-        <v>6.156751758829738</v>
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.936078688804397</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.4022084173192064</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.416943234334936</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.9454019114892432</v>
+      </c>
+      <c r="N27" t="n">
+        <v>14.49109499544993</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>8731856144.206993</v>
+        <v>12059896664.41678</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1319915927342239</v>
+        <v>0.1255406627543618</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1144411311603947</v>
+        <v>0.1233090490225362</v>
       </c>
       <c r="I28" t="n">
-        <v>4.846101563300689</v>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1420629781834575</v>
+      </c>
+      <c r="L28" t="n">
+        <v>7.09578766017044</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8093008325798507</v>
+      </c>
+      <c r="N28" t="n">
+        <v>9.090228991426574</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>5885638449.016582</v>
+        <v>11979127497.6965</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2318698645561596</v>
+        <v>0.1351336330889943</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4257711154265675</v>
+        <v>0.14688555444829</v>
       </c>
       <c r="I29" t="n">
-        <v>5.738224805635588</v>
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9475069614819237</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.373071217495932</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.387806034511661</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.9700069108884281</v>
+      </c>
+      <c r="N29" t="n">
+        <v>15.0123321832569</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>9302033762.183023</v>
+        <v>12843435668.33758</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1655768361389544</v>
+        <v>0.09728308392435971</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2191294994114153</v>
+        <v>0.05386080334214977</v>
       </c>
       <c r="I30" t="n">
-        <v>2.146987523402808</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7.042641531119111</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7540134725551801</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8.037627919984493</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>5375623540.398355</v>
+        <v>11262371399.17583</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2738467768319415</v>
+        <v>0.08721708911782836</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5566171062508851</v>
+        <v>0.02912175246496497</v>
       </c>
       <c r="I31" t="n">
-        <v>6.189793360397698</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.742863039071828</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.2816151773136235</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-9.375166585344299</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>6967599098.445612</v>
+        <v>4415833622.946428</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1684205281359817</v>
+        <v>0.2354929824792939</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2279935553120893</v>
+        <v>0.393537286173486</v>
       </c>
       <c r="I32" t="n">
-        <v>4.934212500815247</v>
+        <v>5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.9489914741895384</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1435733913669473</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.253373608515147</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.678384579754805</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10.31431798658095</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>6652466450.907081</v>
+        <v>5421976087.462053</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1649800743978724</v>
+        <v>0.2507320925194904</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2172693368347844</v>
+        <v>0.4309902280687888</v>
       </c>
       <c r="I33" t="n">
-        <v>4.614810352324974</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7.151817614475338</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7781232597919028</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8.410647581362717</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>11046554740.61013</v>
+        <v>5954524050.235842</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1273349440644069</v>
+        <v>0.1865172347328098</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.09992591848539098</v>
+        <v>0.2731702942829002</v>
       </c>
       <c r="I34" t="n">
-        <v>5.914446680664704</v>
+        <v>5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9387349791047283</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3327270216587932</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.442527238806993</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.7091610718226878</v>
+      </c>
+      <c r="N34" t="n">
+        <v>10.74069419764676</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>9477785180.193161</v>
+        <v>12720922707.96702</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1310001056570366</v>
+        <v>0.1258122014213365</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1113505725182594</v>
+        <v>0.1239764057047639</v>
       </c>
       <c r="I35" t="n">
-        <v>1.755587944716424</v>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4403274450095466</v>
+      </c>
+      <c r="L35" t="n">
+        <v>7.394052126996529</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8255831475657592</v>
+      </c>
+      <c r="N35" t="n">
+        <v>9.117610824318655</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>6672634117.576994</v>
+        <v>11502848977.02849</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2316086979696692</v>
+        <v>0.1054327995109691</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4249570345681415</v>
+        <v>0.07389024230042299</v>
       </c>
       <c r="I36" t="n">
-        <v>6.498181641698651</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.098467652066276</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7455628583542865</v>
+      </c>
+      <c r="N36" t="n">
+        <v>7.812789515019453</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>10568077683.87513</v>
+        <v>3371868226.673001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1137671434639887</v>
+        <v>0.2936441620605542</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05763380559235386</v>
+        <v>0.5364546051150442</v>
       </c>
       <c r="I37" t="n">
-        <v>5.055365039897764</v>
+        <v>5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.9322867738805051</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2070630092683251</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.316863226416525</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.6386135339822929</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9.455407453229334</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>7477722739.228683</v>
+        <v>9048379596.557611</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1432696219638797</v>
+        <v>0.1392433392692024</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1495958109378137</v>
+        <v>0.1569859203074578</v>
       </c>
       <c r="I38" t="n">
-        <v>4.504671680431777</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7.13898793125751</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7563877859790932</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7.988767788324353</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>6486037019.226798</v>
+        <v>10041540973.3473</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1797135209905038</v>
+        <v>0.1494701335167364</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2631948781181594</v>
+        <v>0.1821201656615368</v>
       </c>
       <c r="I39" t="n">
-        <v>1.591006154530463</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>7.833330262675597</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8067661415645688</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8.301992568615779</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>4729102002.302545</v>
+        <v>7473175331.872706</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2946680954061709</v>
+        <v>0.1861184875548015</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.621519118128629</v>
+        <v>0.2721902990699601</v>
       </c>
       <c r="I40" t="n">
-        <v>5.859377344718106</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>7.354682558996172</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7847010641038351</v>
+      </c>
+      <c r="N40" t="n">
+        <v>8.33933872308053</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>5530176020.654335</v>
+        <v>13016026560.08078</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2316168066289588</v>
+        <v>0.09015706249394111</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.424982310023183</v>
+        <v>0.03634728281016539</v>
       </c>
       <c r="I41" t="n">
-        <v>5.385781055577357</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7.204312799810601</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7362534319403224</v>
+      </c>
+      <c r="N41" t="n">
+        <v>7.520755838995847</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>6355372734.246832</v>
+        <v>11342126902.71402</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1916514421627146</v>
+        <v>0.09976757355176735</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3004065032586229</v>
+        <v>0.05996689781940845</v>
       </c>
       <c r="I42" t="n">
-        <v>1.765631810719756</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>7.155694876287725</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7260108534416089</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7.364522192544452</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>9546659499.09618</v>
+        <v>11535733932.06793</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1336219156156947</v>
+        <v>0.08583150632900444</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1195230011985746</v>
+        <v>0.02571642554337495</v>
       </c>
       <c r="I43" t="n">
-        <v>5.363753321198717</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.142350676706456</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.4830587001283771</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5.518823325861086</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>7811004534.01851</v>
+        <v>13837509053.71768</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1928240143044873</v>
+        <v>0.1114955519819874</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3040615211097513</v>
+        <v>0.08879058198060838</v>
       </c>
       <c r="I44" t="n">
-        <v>6.332973633858855</v>
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9441454622104281</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.2378774324693705</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5.154903309606635</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.9825261104050813</v>
+      </c>
+      <c r="N44" t="n">
+        <v>14.49561889849499</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>7573574654.649183</v>
+        <v>9781378606.984795</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2068237643948539</v>
+        <v>0.1006903709152714</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3477000612632562</v>
+        <v>0.06223484364730085</v>
       </c>
       <c r="I45" t="n">
-        <v>6.586292579213209</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.710958544547588</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.2755328588247556</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-9.221615721042699</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>8424648954.194748</v>
+        <v>7906155006.449576</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1274771098284476</v>
+        <v>0.1967982740954022</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1003690625674281</v>
+        <v>0.2984378570772383</v>
       </c>
       <c r="I46" t="n">
-        <v>4.515685547621096</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5126239661604088</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7.466348648147392</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8172898366401622</v>
+      </c>
+      <c r="N46" t="n">
+        <v>8.879448084655852</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>8136412088.765512</v>
+        <v>11951561821.1717</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1529187848926635</v>
+        <v>0.09183104488116194</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1796731609760253</v>
+        <v>0.04046140528299803</v>
       </c>
       <c r="I47" t="n">
-        <v>5.23158691492688</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7.202029103558643</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7174333119225372</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7.146637134892102</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>4071793639.61405</v>
+        <v>8402806243.008133</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3763312401424265</v>
+        <v>0.1817374250739964</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.876070834954399</v>
+        <v>0.2614230247277919</v>
       </c>
       <c r="I48" t="n">
-        <v>6.443112305752052</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2364238167667653</v>
+      </c>
+      <c r="L48" t="n">
+        <v>7.190148498753748</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8118171345292706</v>
+      </c>
+      <c r="N48" t="n">
+        <v>9.046194191831665</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>7447187241.76784</v>
+        <v>12742074705.58157</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1547606582974014</v>
+        <v>0.08860072759622645</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1854144539285071</v>
+        <v>0.03252230088274388</v>
       </c>
       <c r="I49" t="n">
-        <v>4.846101563300689</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.29293609075012</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7253594078071373</v>
+      </c>
+      <c r="N49" t="n">
+        <v>7.214252065392627</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>4268254623.006637</v>
+        <v>11109375261.29291</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3246426074328053</v>
+        <v>0.1228423883343712</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7149524964541516</v>
+        <v>0.1166775387307326</v>
       </c>
       <c r="I50" t="n">
-        <v>5.826335743150146</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06182389313638753</v>
+      </c>
+      <c r="L50" t="n">
+        <v>7.01554857512337</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.7792285802926455</v>
+      </c>
+      <c r="N50" t="n">
+        <v>8.569023030729541</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>9884610708.367243</v>
+        <v>5880914928.67542</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1264034636126187</v>
+        <v>0.2289382649347807</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.09702240614872909</v>
+        <v>0.3774278509973351</v>
       </c>
       <c r="I51" t="n">
-        <v>5.253614649305519</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.060736912917278</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7753438117128728</v>
+      </c>
+      <c r="N51" t="n">
+        <v>8.446139321340178</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>9448505183.618103</v>
+        <v>13852184818.85096</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.148316968956075</v>
+        <v>0.08093300332481379</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1653288670970912</v>
+        <v>0.01367744505790081</v>
       </c>
       <c r="I52" t="n">
-        <v>5.892418946286065</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.450149165438793</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6515808998943704</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.581468832448616</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>9567343247.81254</v>
+        <v>12576162099.05463</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1245719338304807</v>
+        <v>0.1099729718102127</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.09131335524251567</v>
+        <v>0.08504855855837432</v>
       </c>
       <c r="I53" t="n">
-        <v>5.011309571140485</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07673591479621576</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7.030460596783199</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.7830686772121133</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8.630912947459066</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>4652581180.855147</v>
+        <v>11156505555.05975</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3113374304913817</v>
+        <v>0.1427498164313396</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.673479006251828</v>
+        <v>0.1656037388719491</v>
       </c>
       <c r="I54" t="n">
-        <v>6.090668555693821</v>
+        <v>4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.9591125817578096</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2437878532262101</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.720650194219702</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.9347232691301323</v>
+      </c>
+      <c r="N54" t="n">
+        <v>14.97381518838294</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>9470306858.477909</v>
+        <v>5490081276.588268</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.156826399840512</v>
+        <v>0.2409421433596753</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1918535649621981</v>
+        <v>0.4069296106132178</v>
       </c>
       <c r="I55" t="n">
-        <v>6.244862696344297</v>
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3164783162604135</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.331213133276143</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.6340228672409504</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.349244211542864</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>7063322865.56961</v>
+        <v>7677158968.331654</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2173145089377442</v>
+        <v>0.163090073445762</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3804007004903874</v>
+        <v>0.2155936964276901</v>
       </c>
       <c r="I56" t="n">
-        <v>6.454126172941372</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.224337016119712</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7546086862427445</v>
+      </c>
+      <c r="N56" t="n">
+        <v>7.867836708735178</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>10145389856.93107</v>
+        <v>11081141772.76632</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1076632485693764</v>
+        <v>0.08887988802927566</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.03860739006836519</v>
+        <v>0.0332083894699961</v>
       </c>
       <c r="I57" t="n">
-        <v>4.592782617946335</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.160772586632808</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.604123343039477</v>
+      </c>
+      <c r="N57" t="n">
+        <v>6.921694274156733</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>10531253041.23628</v>
+        <v>12806241061.46616</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1081955438292498</v>
+        <v>0.126405790132352</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04026660454873578</v>
+        <v>0.1254352601552358</v>
       </c>
       <c r="I58" t="n">
-        <v>4.79103222735409</v>
+        <v>3</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.951020556856693</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4467038737252476</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4.461438690740977</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.9714418615923999</v>
+      </c>
+      <c r="N58" t="n">
+        <v>14.96739854110702</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>7333201966.680666</v>
+        <v>6452084215.773469</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.185741890948701</v>
+        <v>0.2448034026181185</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2819858752990297</v>
+        <v>0.4164193720407366</v>
       </c>
       <c r="I59" t="n">
-        <v>5.727210938446269</v>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4090073128680325</v>
+      </c>
+      <c r="L59" t="n">
+        <v>7.362731994855015</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8217047353442595</v>
+      </c>
+      <c r="N59" t="n">
+        <v>9.071362712030176</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>8151091827.137989</v>
+        <v>7490043155.863643</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1883137342275478</v>
+        <v>0.1356899151114186</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2900025531302792</v>
+        <v>0.1482527207859768</v>
       </c>
       <c r="I60" t="n">
-        <v>6.454126172941372</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>6.995118433781817</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6959519174676962</v>
+      </c>
+      <c r="N60" t="n">
+        <v>6.923919915572109</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>11106851111.30221</v>
+        <v>12492714894.43991</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.09527754981095886</v>
+        <v>0.08030491198086197</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>0.01213379398195734</v>
       </c>
       <c r="I61" t="n">
-        <v>4.449602344485178</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>7.033466014189085</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6923388600835281</v>
+      </c>
+      <c r="N61" t="n">
+        <v>6.813311187481477</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>7763659739.05251</v>
+        <v>8694460955.165482</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1939999047644781</v>
+        <v>0.1753397925255258</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.3077268824714334</v>
+        <v>0.2456996550905004</v>
       </c>
       <c r="I62" t="n">
-        <v>6.332973633858855</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>7.666453456863835</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8113153297432791</v>
+      </c>
+      <c r="N62" t="n">
+        <v>8.559853138001749</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>6685397250.622767</v>
+        <v>3237203205.040134</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2198041096006842</v>
+        <v>0.4822546936718003</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3881610203385723</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>6.178779493208379</v>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3649754357957464</v>
+      </c>
+      <c r="L63" t="n">
+        <v>7.318700117782729</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8182757348481862</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9.046814579180992</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>6245400841.756966</v>
+        <v>6674675147.601452</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2189325576763689</v>
+        <v>0.1868000483061784</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.385444310868789</v>
+        <v>0.2738653611406524</v>
       </c>
       <c r="I64" t="n">
-        <v>5.749238672824908</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>7.338485627523575</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7534171605081458</v>
+      </c>
+      <c r="N64" t="n">
+        <v>7.72985758263934</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>6981316612.486004</v>
+        <v>8329089286.369017</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1729672004619202</v>
+        <v>0.1204485070945069</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2421659613607388</v>
+        <v>0.1107941311863024</v>
       </c>
       <c r="I65" t="n">
-        <v>5.077392774276404</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.066258654414387</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.4913119463828736</v>
+      </c>
+      <c r="N65" t="n">
+        <v>5.759980273243086</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>7743247181.109459</v>
+        <v>10631026029.02161</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.158991863646487</v>
+        <v>0.1145718528649013</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1986035196855346</v>
+        <v>0.09635116248146015</v>
       </c>
       <c r="I66" t="n">
-        <v>5.176517578980281</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>7.514248618139339</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7467837990655802</v>
+      </c>
+      <c r="N66" t="n">
+        <v>7.421427363172265</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>4932304726.294037</v>
+        <v>13302712253.28517</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2437602858539048</v>
+        <v>0.0758089877311264</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4628346789826618</v>
+        <v>0.001084225519830928</v>
       </c>
       <c r="I67" t="n">
-        <v>5.055365039897764</v>
+        <v>5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.9441127427427747</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.2076360683255809</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.317436285473781</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.657410189809822</v>
+      </c>
+      <c r="N67" t="n">
+        <v>9.830767510722659</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>8318750477.438666</v>
+        <v>10914389761.41879</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1404355068911386</v>
+        <v>0.1231170133533258</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1407616072125224</v>
+        <v>0.117352480695898</v>
       </c>
       <c r="I68" t="n">
-        <v>4.912184766436607</v>
+        <v>6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.9447672518968534</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.4187648542054212</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3.257611067982976</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.7574352884631078</v>
+      </c>
+      <c r="N68" t="n">
+        <v>11.89109470127918</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>7600483676.354932</v>
+        <v>6636349557.672726</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1874812473360093</v>
+        <v>0.1855106168385341</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2874076130485511</v>
+        <v>0.2706963439402859</v>
       </c>
       <c r="I69" t="n">
-        <v>5.991543750989942</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>7.034866324122159</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.749815943808641</v>
+      </c>
+      <c r="N69" t="n">
+        <v>7.961452552050662</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>5912635597.849428</v>
+        <v>9260512032.208401</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2246089257526775</v>
+        <v>0.1139909074496675</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4031380850165514</v>
+        <v>0.09492338127745927</v>
       </c>
       <c r="I70" t="n">
-        <v>2.200858848569691</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>7.019619900329606</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7065365105872434</v>
+      </c>
+      <c r="N70" t="n">
+        <v>7.111110311415263</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>10813352327.58719</v>
+        <v>3271235459.722875</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1010126736750586</v>
+        <v>0.4588206775329927</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.01787692147455213</v>
+        <v>0.9424065550740629</v>
       </c>
       <c r="I71" t="n">
-        <v>4.592782617946335</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>7.831831666357681</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8067661415645688</v>
+      </c>
+      <c r="N71" t="n">
+        <v>8.303491164933694</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>6916457771.588399</v>
+        <v>7099277325.943871</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1768615048912636</v>
+        <v>0.1962897652846275</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.254304875206552</v>
+        <v>0.2971881022757467</v>
       </c>
       <c r="I72" t="n">
-        <v>1.520259448312524</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>7.272475292450006</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7852434362075359</v>
+      </c>
+      <c r="N72" t="n">
+        <v>8.432393431700712</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>7836117488.591782</v>
+        <v>4013647120.26831</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1701441449724359</v>
+        <v>0.3726465344815902</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2333662313985444</v>
+        <v>0.73061760125271</v>
       </c>
       <c r="I73" t="n">
-        <v>5.606058399363752</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3511960648522946</v>
+      </c>
+      <c r="L73" t="n">
+        <v>7.304920746839278</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8057470426564873</v>
+      </c>
+      <c r="N73" t="n">
+        <v>8.810020106290468</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>5525746403.056311</v>
+        <v>10073301472.0415</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2147372650586528</v>
+        <v>0.1008927731211868</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.3723671884793054</v>
+        <v>0.06273228464205925</v>
       </c>
       <c r="I74" t="n">
-        <v>4.989281836761846</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.183970854722349</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.4992538001358874</v>
+      </c>
+      <c r="N74" t="n">
+        <v>5.801105147995398</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>7224034554.467442</v>
+        <v>11382148436.28812</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2059532673580466</v>
+        <v>0.09113204293602338</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3449866399772316</v>
+        <v>0.03874347824087265</v>
       </c>
       <c r="I75" t="n">
-        <v>6.255876563533617</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>7.126418361898664</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7016433770148648</v>
+      </c>
+      <c r="N75" t="n">
+        <v>6.906449178398632</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>10831391067.06737</v>
+        <v>5697715789.736814</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1073739423494833</v>
+        <v>0.2772149802285871</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.03770559532117538</v>
+        <v>0.4960768408678551</v>
       </c>
       <c r="I76" t="n">
-        <v>2.005948477745056</v>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.3689307977591891</v>
+      </c>
+      <c r="L76" t="n">
+        <v>7.322655479746172</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8217047353442595</v>
+      </c>
+      <c r="N76" t="n">
+        <v>9.111439227139019</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>10478950088.41026</v>
+        <v>13485041934.48471</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1299827548092309</v>
+        <v>0.08915804754936731</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1081793940661011</v>
+        <v>0.03389201812784676</v>
       </c>
       <c r="I77" t="n">
-        <v>2.313453246045996</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>7.091163862487793</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7431068833667616</v>
+      </c>
+      <c r="N77" t="n">
+        <v>7.770973804847438</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>8224066367.268616</v>
+        <v>6141949949.228395</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1522444450330765</v>
+        <v>0.1953256913385812</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1775711800942421</v>
+        <v>0.2948187115837178</v>
       </c>
       <c r="I78" t="n">
-        <v>1.607975085438081</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.017011934883878</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7424899212952762</v>
+      </c>
+      <c r="N78" t="n">
+        <v>7.832786491021648</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>3918138735.184042</v>
+        <v>9724127659.330524</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2841248932824502</v>
+        <v>0.1435743049568438</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.588654963679251</v>
+        <v>0.1676300724805128</v>
       </c>
       <c r="I79" t="n">
-        <v>4.680893555460893</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>7.318898007923338</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7857849356050772</v>
+      </c>
+      <c r="N79" t="n">
+        <v>8.396800704178208</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>9613762427.654593</v>
+        <v>7746295278.136895</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1258776872329301</v>
+        <v>0.1900388672446866</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.09538351163213399</v>
+        <v>0.2818253599327988</v>
       </c>
       <c r="I80" t="n">
-        <v>5.088406641465723</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>7.475680568603929</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.801123452430174</v>
+      </c>
+      <c r="N80" t="n">
+        <v>8.546788479999551</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>4914827246.940921</v>
+        <v>7804380902.726134</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2259736312586106</v>
+        <v>0.1298890895555732</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.4073920006674709</v>
+        <v>0.1339961151236512</v>
       </c>
       <c r="I81" t="n">
-        <v>4.669879688271573</v>
+        <v>5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.9541852137184949</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2082149464900521</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.318015163638252</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.6667481470818195</v>
+      </c>
+      <c r="N81" t="n">
+        <v>10.01694777799814</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>9244647094.017061</v>
+        <v>8459159862.722634</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1241034739706293</v>
+        <v>0.1535870536890219</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.08985312171888311</v>
+        <v>0.1922382612454322</v>
       </c>
       <c r="I82" t="n">
-        <v>1.740939641542073</v>
+        <v>6</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.9423082916434169</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2791824730269838</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3.118028686804539</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.736387363569022</v>
+      </c>
+      <c r="N82" t="n">
+        <v>11.6097185845759</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>9368527336.606066</v>
+        <v>5819061357.965693</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.122182856373527</v>
+        <v>0.2556792974803981</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.08386637569915599</v>
+        <v>0.4431489026538727</v>
       </c>
       <c r="I83" t="n">
-        <v>4.81305996173273</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4348619127317448</v>
+      </c>
+      <c r="L83" t="n">
+        <v>7.388586594718728</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8042127316683128</v>
+      </c>
+      <c r="N83" t="n">
+        <v>8.695668038647529</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>8336906467.696402</v>
+        <v>10313908055.81223</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1652650350988889</v>
+        <v>0.1536499008353048</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2181575861901811</v>
+        <v>0.1923927197742971</v>
       </c>
       <c r="I84" t="n">
-        <v>5.793294141582187</v>
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3758198018465676</v>
+      </c>
+      <c r="L84" t="n">
+        <v>7.32954448383355</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8226783422743748</v>
+      </c>
+      <c r="N84" t="n">
+        <v>9.124022361653942</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>5869376637.634031</v>
+        <v>11460186148.42871</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2155536180601954</v>
+        <v>0.1097108880881823</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.374911837705706</v>
+        <v>0.08440443915855274</v>
       </c>
       <c r="I85" t="n">
-        <v>5.319697852441438</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7.043920673498833</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7557958381061521</v>
+      </c>
+      <c r="N85" t="n">
+        <v>8.071996088624211</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>10778218910.77625</v>
+        <v>12226972406.58762</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1249154866073354</v>
+        <v>0.1261817446458587</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.09238424161911875</v>
+        <v>0.1248846267806225</v>
       </c>
       <c r="I86" t="n">
-        <v>5.66112773531035</v>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2591852001149781</v>
+      </c>
+      <c r="L86" t="n">
+        <v>7.212909882101961</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8148128741967288</v>
+      </c>
+      <c r="N86" t="n">
+        <v>9.083347601832614</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>5277162461.80697</v>
+        <v>5674585040.366227</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2059907872587612</v>
+        <v>0.2741905617647742</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3451035930430593</v>
+        <v>0.4886437710433389</v>
       </c>
       <c r="I87" t="n">
-        <v>4.570754883567695</v>
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9458926113663507</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2278445008656599</v>
+      </c>
+      <c r="L87" t="n">
+        <v>5.144870378002924</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.9862096431921937</v>
+      </c>
+      <c r="N87" t="n">
+        <v>14.57932248584095</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>6165702791.894371</v>
+        <v>12593125046.92115</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1907497246779631</v>
+        <v>0.09193670162777104</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2975957648946202</v>
+        <v>0.0407210763517914</v>
       </c>
       <c r="I88" t="n">
-        <v>4.945226368004566</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>7.201742310494142</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7324515688496804</v>
+      </c>
+      <c r="N88" t="n">
+        <v>7.447289066499467</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>8535807842.402661</v>
+        <v>10372394805.34539</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1561972263921901</v>
+        <v>0.1459650783076401</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1898923720401181</v>
+        <v>0.1735058418106134</v>
       </c>
       <c r="I89" t="n">
-        <v>2.111525380650377</v>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.1749945301878775</v>
+      </c>
+      <c r="L89" t="n">
+        <v>7.12871921217486</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8093008325798507</v>
+      </c>
+      <c r="N89" t="n">
+        <v>9.057297439422154</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>7395118104.548245</v>
+        <v>11406048032.38046</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1615176151501053</v>
+        <v>0.09897881253831478</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2064765251104148</v>
+        <v>0.05802837120412729</v>
       </c>
       <c r="I90" t="n">
-        <v>5.022323438329805</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>7.469385527355789</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7253594078071373</v>
+      </c>
+      <c r="N90" t="n">
+        <v>7.037802628786957</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>11036324095.05627</v>
+        <v>8211412004.418039</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1141617969124688</v>
+        <v>0.1448232118130433</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.05886397757735734</v>
+        <v>0.1706994929253095</v>
       </c>
       <c r="I91" t="n">
-        <v>5.297670118062799</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>6.99151240884335</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7400100308642081</v>
+      </c>
+      <c r="N91" t="n">
+        <v>7.808688208440811</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>10454543784.32087</v>
+        <v>12662155213.26825</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1375521629319395</v>
+        <v>0.07840283058287988</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1317739524095659</v>
+        <v>0.007459075846131005</v>
       </c>
       <c r="I92" t="n">
-        <v>6.046613086936541</v>
+        <v>4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.951696925077949</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.1912214209059446</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.668083761899436</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.7243482619185775</v>
+      </c>
+      <c r="N92" t="n">
+        <v>10.81888147647211</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>5985060495.620067</v>
+        <v>4772997992.792585</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.210511922297532</v>
+        <v>0.2173222032706343</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3591963969613648</v>
+        <v>0.3488792230648659</v>
       </c>
       <c r="I93" t="n">
-        <v>1.727958966324749</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>7.375094574094148</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7016433770148648</v>
+      </c>
+      <c r="N93" t="n">
+        <v>6.657772966203148</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>5092299238.574576</v>
+        <v>14363424600.39412</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2335296894950107</v>
+        <v>0.09337102517760285</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.4309449461574234</v>
+        <v>0.04424619274173922</v>
       </c>
       <c r="I94" t="n">
-        <v>5.000295703951165</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>7.434898094029663</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7742254946887914</v>
+      </c>
+      <c r="N94" t="n">
+        <v>8.049611799746167</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>6972102307.742311</v>
+        <v>9963412927.78027</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2190306886782479</v>
+        <v>0.1325020421786452</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3857501944480071</v>
+        <v>0.1404179312604834</v>
       </c>
       <c r="I95" t="n">
-        <v>6.421084571373413</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>7.421480615872788</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7697140937327827</v>
+      </c>
+      <c r="N95" t="n">
+        <v>7.972801258782866</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>6780795211.751628</v>
+        <v>7109840637.692234</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2298457631191896</v>
+        <v>0.2129453383207514</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.4194618005272422</v>
+        <v>0.338122264934164</v>
       </c>
       <c r="I96" t="n">
-        <v>6.553250977645249</v>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2259963492218017</v>
+      </c>
+      <c r="L96" t="n">
+        <v>7.179721031208785</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8093008325798507</v>
+      </c>
+      <c r="N96" t="n">
+        <v>9.006295620388229</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>9019884230.625216</v>
+        <v>13578809329.78551</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1739506372679069</v>
+        <v>0.1118836094610659</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2452314265490078</v>
+        <v>0.08974430527400477</v>
       </c>
       <c r="I97" t="n">
-        <v>6.597306446402529</v>
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.9420739581297378</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3822726628115125</v>
+      </c>
+      <c r="L97" t="n">
+        <v>5.299298539948777</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.9762482939324465</v>
+      </c>
+      <c r="N97" t="n">
+        <v>14.22566733870016</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>8754869697.039812</v>
+        <v>10310895893.51079</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1220704770010856</v>
+        <v>0.1074593305415222</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.08351607860634711</v>
+        <v>0.07887081851098468</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9431223190349081</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>7.080770251627449</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7200979990537334</v>
+      </c>
+      <c r="N98" t="n">
+        <v>7.321189729447219</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>11492414323.71428</v>
+        <v>4548034289.362625</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1214831653884175</v>
+        <v>0.2401665336065608</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.08168537297041775</v>
+        <v>0.4050234056616028</v>
       </c>
       <c r="I99" t="n">
-        <v>1.129872617839525</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>7.147876394591156</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7160922633876244</v>
+      </c>
+      <c r="N99" t="n">
+        <v>7.173968873161332</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>6822671917.313769</v>
+        <v>10824410927.68825</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1708463435039293</v>
+        <v>0.1214785533166033</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.2355550503856343</v>
+        <v>0.1133256609937448</v>
       </c>
       <c r="I100" t="n">
-        <v>4.901170899247288</v>
+        <v>5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.9755508450261592</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2461765075732313</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.355976724721431</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8154125906481724</v>
+      </c>
+      <c r="N100" t="n">
+        <v>12.95227508824202</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>4943785244.34146</v>
+        <v>7730520384.43941</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.343862855277899</v>
+        <v>0.2046578343140517</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.7748638200088185</v>
+        <v>0.3177541853546288</v>
       </c>
       <c r="I101" t="n">
-        <v>7.147999805868516</v>
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.9837511306165931</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.4452200495586584</v>
+      </c>
+      <c r="L101" t="n">
+        <v>4.459954866574388</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.9756786283328663</v>
+      </c>
+      <c r="N101" t="n">
+        <v>15.05361770008294</v>
       </c>
     </row>
   </sheetData>
